--- a/map/map.xlsx
+++ b/map/map.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="18">
   <si>
     <t>Meer</t>
   </si>
@@ -32,22 +32,52 @@
     <t>Strand</t>
   </si>
   <si>
-    <t>Stand</t>
-  </si>
-  <si>
     <t>Shop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Übergang </t>
-  </si>
-  <si>
-    <t>Übergang</t>
   </si>
   <si>
     <t>Fluss</t>
   </si>
   <si>
     <t>FlussAnfang</t>
+  </si>
+  <si>
+    <t>Fluss OR</t>
+  </si>
+  <si>
+    <t>Fluss UL</t>
+  </si>
+  <si>
+    <t>Wiese Strand O</t>
+  </si>
+  <si>
+    <t>Wiese Strand L</t>
+  </si>
+  <si>
+    <t>Wiese Strand U</t>
+  </si>
+  <si>
+    <t>Wiese Strand R</t>
+  </si>
+  <si>
+    <t>strand meer L</t>
+  </si>
+  <si>
+    <t>strand meer U</t>
+  </si>
+  <si>
+    <t>strand meer R</t>
+  </si>
+  <si>
+    <t>strand meer O</t>
+  </si>
+  <si>
+    <t>steine</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>baum</t>
   </si>
 </sst>
 </file>
@@ -367,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DV100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,364 +794,364 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="P2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Q2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="R2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="S2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="T2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="U2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="V2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="W2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="X2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Y2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Z2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AA2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AB2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AC2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AD2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AF2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AG2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AH2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AI2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AJ2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AK2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AL2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AM2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AN2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AO2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AP2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AQ2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AR2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AS2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AT2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AU2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AV2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AW2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AX2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AY2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AZ2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BA2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BB2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BC2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BD2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BE2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BF2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BG2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BH2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BI2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BJ2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BK2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BL2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BM2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BN2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BO2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BP2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BQ2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BR2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BS2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BT2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BU2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BV2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BW2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BX2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BY2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BZ2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="CA2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="CB2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="CC2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="CD2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="CE2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="CF2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="CG2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="CH2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="CI2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="CJ2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="CK2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="CL2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="CM2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="CN2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="CO2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="CP2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="CQ2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="CR2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="CS2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="CT2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="CU2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="CV2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="CW2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="CX2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="CY2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="CZ2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="DA2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="DB2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="DC2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="DD2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="DE2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="DF2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="DG2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="DH2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="DI2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="DJ2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="DK2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="DL2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="DM2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="DN2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="DO2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="DP2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="DQ2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="DR2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="DS2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="DT2" t="s">
         <v>0</v>
@@ -1144,370 +1174,370 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AC3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AN3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AP3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AQ3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AR3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AS3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AT3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AU3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BE3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BF3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BH3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BI3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BJ3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BK3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BL3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BM3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BN3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BO3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BP3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BQ3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BR3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BS3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BT3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BU3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BV3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BW3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BX3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BY3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BZ3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CA3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CB3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CC3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CD3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CE3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CF3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CG3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CH3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CI3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CJ3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CK3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CL3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CM3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CN3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CO3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CP3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CQ3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CR3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CS3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CT3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CU3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CV3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CW3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CX3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CY3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CZ3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DA3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DB3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DC3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DD3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DE3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DF3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DG3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DH3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DI3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DJ3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DK3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DL3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DM3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DN3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DO3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DP3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DQ3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DR3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DS3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DT3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="DU3" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="DV3" t="s">
         <v>0</v>
@@ -1518,22 +1548,22 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="DS4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DT4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV4" t="s">
         <v>0</v>
@@ -1544,22 +1574,22 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF5" t="s">
         <v>6</v>
       </c>
       <c r="DT5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU5" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV5" t="s">
         <v>0</v>
@@ -1570,22 +1600,28 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
       </c>
       <c r="AF6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG6" t="s">
         <v>6</v>
       </c>
       <c r="DT6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU6" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV6" t="s">
         <v>0</v>
@@ -1596,22 +1632,28 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
       </c>
       <c r="AG7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="s">
         <v>6</v>
       </c>
       <c r="DT7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV7" t="s">
         <v>0</v>
@@ -1622,22 +1664,22 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI8" t="s">
         <v>6</v>
       </c>
       <c r="DT8" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU8" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV8" t="s">
         <v>0</v>
@@ -1648,22 +1690,31 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
       </c>
       <c r="AI9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ9" t="s">
         <v>6</v>
       </c>
       <c r="DT9" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU9" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV9" t="s">
         <v>0</v>
@@ -1674,22 +1725,22 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AJ10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK10" t="s">
         <v>6</v>
       </c>
       <c r="DT10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU10" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV10" t="s">
         <v>0</v>
@@ -1700,22 +1751,31 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
       </c>
       <c r="AK11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL11" t="s">
         <v>6</v>
       </c>
       <c r="DT11" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU11" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV11" t="s">
         <v>0</v>
@@ -1726,22 +1786,28 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
       </c>
       <c r="AL12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM12" t="s">
         <v>6</v>
       </c>
       <c r="DT12" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU12" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV12" t="s">
         <v>0</v>
@@ -1752,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AM13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN13" t="s">
         <v>6</v>
       </c>
       <c r="DT13" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU13" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV13" t="s">
         <v>0</v>
@@ -1778,22 +1844,22 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AN14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO14" t="s">
         <v>6</v>
       </c>
       <c r="DT14" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU14" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV14" t="s">
         <v>0</v>
@@ -1804,22 +1870,25 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
       </c>
       <c r="AO15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP15" t="s">
         <v>6</v>
       </c>
       <c r="DT15" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU15" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV15" t="s">
         <v>0</v>
@@ -1830,22 +1899,22 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AP16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ16" t="s">
         <v>6</v>
       </c>
       <c r="DT16" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU16" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV16" t="s">
         <v>0</v>
@@ -1856,22 +1925,22 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AQ17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR17" t="s">
         <v>6</v>
       </c>
       <c r="DT17" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU17" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV17" t="s">
         <v>0</v>
@@ -1882,22 +1951,25 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
       </c>
       <c r="AR18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS18" t="s">
         <v>6</v>
       </c>
       <c r="DT18" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU18" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV18" t="s">
         <v>0</v>
@@ -1908,22 +1980,22 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AS19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT19" t="s">
         <v>6</v>
       </c>
       <c r="DT19" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU19" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV19" t="s">
         <v>0</v>
@@ -1934,22 +2006,22 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AT20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU20" t="s">
         <v>6</v>
       </c>
       <c r="DT20" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU20" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV20" t="s">
         <v>0</v>
@@ -1960,22 +2032,22 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AU21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV21" t="s">
         <v>6</v>
       </c>
       <c r="DT21" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU21" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV21" t="s">
         <v>0</v>
@@ -1986,22 +2058,22 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW22" t="s">
         <v>6</v>
       </c>
       <c r="DT22" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU22" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV22" t="s">
         <v>0</v>
@@ -2012,22 +2084,22 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AW23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX23" t="s">
         <v>6</v>
       </c>
       <c r="DT23" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU23" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV23" t="s">
         <v>0</v>
@@ -2038,22 +2110,22 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY24" t="s">
         <v>6</v>
       </c>
       <c r="DT24" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU24" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV24" t="s">
         <v>0</v>
@@ -2064,22 +2136,22 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AY25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ25" t="s">
         <v>6</v>
       </c>
       <c r="DT25" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU25" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV25" t="s">
         <v>0</v>
@@ -2090,22 +2162,22 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA26" t="s">
         <v>6</v>
       </c>
       <c r="DT26" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU26" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV26" t="s">
         <v>0</v>
@@ -2116,22 +2188,22 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB27" t="s">
         <v>6</v>
       </c>
       <c r="DT27" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU27" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV27" t="s">
         <v>0</v>
@@ -2142,22 +2214,22 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC28" t="s">
         <v>6</v>
       </c>
       <c r="DT28" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU28" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV28" t="s">
         <v>0</v>
@@ -2168,22 +2240,22 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BC29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD29" t="s">
         <v>6</v>
       </c>
       <c r="DT29" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU29" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV29" t="s">
         <v>0</v>
@@ -2194,22 +2266,22 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BE30" t="s">
         <v>6</v>
       </c>
       <c r="DT30" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU30" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV30" t="s">
         <v>0</v>
@@ -2220,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BE31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BF31" t="s">
         <v>6</v>
       </c>
       <c r="DT31" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU31" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV31" t="s">
         <v>0</v>
@@ -2246,22 +2318,22 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BF32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG32" t="s">
         <v>6</v>
       </c>
       <c r="DT32" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU32" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV32" t="s">
         <v>0</v>
@@ -2272,22 +2344,22 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BG33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BH33" t="s">
         <v>6</v>
       </c>
       <c r="DT33" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU33" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV33" t="s">
         <v>0</v>
@@ -2298,22 +2370,22 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BH34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BI34" t="s">
         <v>6</v>
       </c>
       <c r="DT34" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU34" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV34" t="s">
         <v>0</v>
@@ -2324,22 +2396,22 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BI35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ35" t="s">
         <v>6</v>
       </c>
       <c r="DT35" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU35" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV35" t="s">
         <v>0</v>
@@ -2350,22 +2422,22 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BJ36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BK36" t="s">
         <v>6</v>
       </c>
       <c r="DT36" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU36" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV36" t="s">
         <v>0</v>
@@ -2376,22 +2448,22 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BK37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BL37" t="s">
         <v>6</v>
       </c>
       <c r="DT37" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU37" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV37" t="s">
         <v>0</v>
@@ -2402,22 +2474,22 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BL38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BM38" t="s">
         <v>6</v>
       </c>
       <c r="DT38" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU38" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV38" t="s">
         <v>0</v>
@@ -2428,22 +2500,22 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BM39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BN39" t="s">
         <v>6</v>
       </c>
       <c r="DT39" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU39" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV39" t="s">
         <v>0</v>
@@ -2454,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BN40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BO40" t="s">
         <v>6</v>
       </c>
       <c r="DT40" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU40" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV40" t="s">
         <v>0</v>
@@ -2480,22 +2552,22 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BO41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BP41" t="s">
         <v>6</v>
       </c>
       <c r="DT41" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU41" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV41" t="s">
         <v>0</v>
@@ -2506,22 +2578,22 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BP42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BQ42" t="s">
         <v>6</v>
       </c>
       <c r="DT42" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU42" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV42" t="s">
         <v>0</v>
@@ -2532,22 +2604,22 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BQ43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BR43" t="s">
         <v>6</v>
       </c>
       <c r="DT43" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU43" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV43" t="s">
         <v>0</v>
@@ -2558,22 +2630,22 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BR44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BS44" t="s">
         <v>6</v>
       </c>
       <c r="DT44" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU44" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV44" t="s">
         <v>0</v>
@@ -2584,22 +2656,22 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BS45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BT45" t="s">
         <v>6</v>
       </c>
       <c r="DT45" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU45" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV45" t="s">
         <v>0</v>
@@ -2610,22 +2682,22 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BT46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BU46" t="s">
         <v>6</v>
       </c>
       <c r="DT46" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU46" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV46" t="s">
         <v>0</v>
@@ -2636,22 +2708,22 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BU47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BV47" t="s">
         <v>6</v>
       </c>
       <c r="DT47" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU47" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV47" t="s">
         <v>0</v>
@@ -2662,22 +2734,22 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BV48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BW48" t="s">
         <v>6</v>
       </c>
       <c r="DT48" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU48" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV48" t="s">
         <v>0</v>
@@ -2688,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BW49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BX49" t="s">
         <v>6</v>
       </c>
       <c r="DT49" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU49" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV49" t="s">
         <v>0</v>
@@ -2714,22 +2786,22 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BX50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BY50" t="s">
         <v>6</v>
       </c>
       <c r="DT50" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU50" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV50" t="s">
         <v>0</v>
@@ -2740,22 +2812,22 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BY51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BZ51" t="s">
         <v>6</v>
       </c>
       <c r="DT51" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU51" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV51" t="s">
         <v>0</v>
@@ -2766,22 +2838,22 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BZ52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CA52" t="s">
         <v>6</v>
       </c>
       <c r="DT52" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU52" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV52" t="s">
         <v>0</v>
@@ -2792,22 +2864,22 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CA53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CB53" t="s">
         <v>6</v>
       </c>
       <c r="DT53" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU53" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV53" t="s">
         <v>0</v>
@@ -2818,22 +2890,22 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CB54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CC54" t="s">
         <v>6</v>
       </c>
       <c r="DT54" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU54" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV54" t="s">
         <v>0</v>
@@ -2844,22 +2916,22 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CC55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CD55" t="s">
         <v>6</v>
       </c>
       <c r="DT55" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU55" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV55" t="s">
         <v>0</v>
@@ -2870,22 +2942,22 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CD56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CE56" t="s">
         <v>6</v>
       </c>
       <c r="DT56" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU56" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV56" t="s">
         <v>0</v>
@@ -2896,22 +2968,22 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CE57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CF57" t="s">
         <v>6</v>
       </c>
       <c r="DT57" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU57" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV57" t="s">
         <v>0</v>
@@ -2922,22 +2994,22 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CF58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CG58" t="s">
         <v>6</v>
       </c>
       <c r="DT58" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU58" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV58" t="s">
         <v>0</v>
@@ -2948,22 +3020,22 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CG59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CH59" t="s">
         <v>6</v>
       </c>
       <c r="DT59" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU59" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV59" t="s">
         <v>0</v>
@@ -2974,22 +3046,22 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CH60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CI60" t="s">
         <v>6</v>
       </c>
       <c r="DT60" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU60" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV60" t="s">
         <v>0</v>
@@ -3000,22 +3072,22 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CI61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CJ61" t="s">
         <v>6</v>
       </c>
       <c r="DT61" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU61" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV61" t="s">
         <v>0</v>
@@ -3026,22 +3098,22 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CJ62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CK62" t="s">
         <v>6</v>
       </c>
       <c r="DT62" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU62" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV62" t="s">
         <v>0</v>
@@ -3052,22 +3124,22 @@
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CK63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CL63" t="s">
         <v>6</v>
       </c>
       <c r="DT63" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU63" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV63" t="s">
         <v>0</v>
@@ -3078,22 +3150,22 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CL64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CM64" t="s">
         <v>6</v>
       </c>
       <c r="DT64" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU64" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV64" t="s">
         <v>0</v>
@@ -3104,22 +3176,22 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CM65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CN65" t="s">
         <v>6</v>
       </c>
       <c r="DT65" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU65" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV65" t="s">
         <v>0</v>
@@ -3130,22 +3202,22 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CN66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CO66" t="s">
         <v>6</v>
       </c>
       <c r="DT66" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU66" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV66" t="s">
         <v>0</v>
@@ -3156,22 +3228,22 @@
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CO67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CP67" t="s">
         <v>6</v>
       </c>
       <c r="DT67" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU67" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV67" t="s">
         <v>0</v>
@@ -3182,22 +3254,22 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CP68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CQ68" t="s">
         <v>6</v>
       </c>
       <c r="DT68" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU68" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV68" t="s">
         <v>0</v>
@@ -3208,22 +3280,22 @@
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CQ69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CR69" t="s">
         <v>6</v>
       </c>
       <c r="DT69" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU69" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV69" t="s">
         <v>0</v>
@@ -3234,22 +3306,22 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CR70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CS70" t="s">
         <v>6</v>
       </c>
       <c r="DT70" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU70" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV70" t="s">
         <v>0</v>
@@ -3260,22 +3332,22 @@
         <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CS71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CT71" t="s">
         <v>6</v>
       </c>
       <c r="DT71" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU71" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV71" t="s">
         <v>0</v>
@@ -3286,22 +3358,22 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CT72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CU72" t="s">
         <v>6</v>
       </c>
       <c r="DT72" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU72" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV72" t="s">
         <v>0</v>
@@ -3312,22 +3384,22 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CU73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CV73" t="s">
         <v>6</v>
       </c>
       <c r="DT73" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU73" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV73" t="s">
         <v>0</v>
@@ -3338,22 +3410,22 @@
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CV74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CW74" t="s">
         <v>6</v>
       </c>
       <c r="DT74" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU74" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV74" t="s">
         <v>0</v>
@@ -3364,22 +3436,22 @@
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CW75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CX75" t="s">
         <v>6</v>
       </c>
       <c r="DT75" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU75" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV75" t="s">
         <v>0</v>
@@ -3390,22 +3462,22 @@
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CX76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CY76" t="s">
         <v>6</v>
       </c>
       <c r="DT76" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU76" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV76" t="s">
         <v>0</v>
@@ -3416,22 +3488,22 @@
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CY77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CZ77" t="s">
         <v>6</v>
       </c>
       <c r="DT77" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU77" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV77" t="s">
         <v>0</v>
@@ -3442,22 +3514,22 @@
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CZ78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DA78" t="s">
         <v>6</v>
       </c>
       <c r="DT78" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU78" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV78" t="s">
         <v>0</v>
@@ -3468,22 +3540,22 @@
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="DA79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DB79" t="s">
         <v>6</v>
       </c>
       <c r="DT79" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU79" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV79" t="s">
         <v>0</v>
@@ -3494,22 +3566,22 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="DB80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DC80" t="s">
         <v>6</v>
       </c>
       <c r="DT80" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU80" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV80" t="s">
         <v>0</v>
@@ -3520,22 +3592,22 @@
         <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="DC81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DD81" t="s">
         <v>6</v>
       </c>
       <c r="DT81" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU81" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV81" t="s">
         <v>0</v>
@@ -3546,22 +3618,22 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="DD82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DE82" t="s">
         <v>6</v>
       </c>
       <c r="DT82" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU82" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV82" t="s">
         <v>0</v>
@@ -3572,22 +3644,22 @@
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="DE83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DF83" t="s">
         <v>6</v>
       </c>
       <c r="DT83" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU83" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV83" t="s">
         <v>0</v>
@@ -3598,22 +3670,22 @@
         <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="DF84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DG84" t="s">
         <v>6</v>
       </c>
       <c r="DT84" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU84" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV84" t="s">
         <v>0</v>
@@ -3624,22 +3696,22 @@
         <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="DG85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DH85" t="s">
         <v>6</v>
       </c>
       <c r="DT85" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU85" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV85" t="s">
         <v>0</v>
@@ -3650,22 +3722,22 @@
         <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="DH86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DI86" t="s">
         <v>6</v>
       </c>
       <c r="DT86" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU86" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV86" t="s">
         <v>0</v>
@@ -3676,22 +3748,22 @@
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="DI87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DJ87" t="s">
         <v>6</v>
       </c>
       <c r="DT87" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU87" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV87" t="s">
         <v>0</v>
@@ -3702,22 +3774,22 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="DJ88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DK88" t="s">
         <v>6</v>
       </c>
       <c r="DT88" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU88" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV88" t="s">
         <v>0</v>
@@ -3728,22 +3800,22 @@
         <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="DK89" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DL89" t="s">
         <v>6</v>
       </c>
       <c r="DT89" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU89" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV89" t="s">
         <v>0</v>
@@ -3754,22 +3826,22 @@
         <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="DL90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DM90" t="s">
         <v>6</v>
       </c>
       <c r="DT90" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU90" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV90" t="s">
         <v>0</v>
@@ -3780,22 +3852,22 @@
         <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="DM91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DN91" t="s">
         <v>6</v>
       </c>
       <c r="DT91" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU91" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV91" t="s">
         <v>0</v>
@@ -3806,22 +3878,22 @@
         <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="DN92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DO92" t="s">
         <v>6</v>
       </c>
       <c r="DT92" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU92" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV92" t="s">
         <v>0</v>
@@ -3832,22 +3904,22 @@
         <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="DO93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DP93" t="s">
         <v>6</v>
       </c>
       <c r="DT93" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU93" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV93" t="s">
         <v>0</v>
@@ -3858,22 +3930,22 @@
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="DP94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DQ94" t="s">
         <v>6</v>
       </c>
       <c r="DT94" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU94" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV94" t="s">
         <v>0</v>
@@ -3884,22 +3956,22 @@
         <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="DQ95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DR95" t="s">
         <v>6</v>
       </c>
       <c r="DT95" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU95" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV95" t="s">
         <v>0</v>
@@ -3910,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="DR96" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="DT96" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU96" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV96" t="s">
         <v>0</v>
@@ -3933,19 +4005,19 @@
         <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="DS97" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DT97" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="DU97" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DV97" t="s">
         <v>0</v>
@@ -3962,364 +4034,364 @@
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="V98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="W98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="X98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Y98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Z98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AA98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AB98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AC98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AD98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AF98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AG98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AH98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AI98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AJ98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AK98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AL98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AM98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AN98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AO98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AP98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AQ98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AR98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AS98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AT98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AU98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AV98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AW98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AX98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AY98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BB98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BC98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BD98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BE98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BF98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BG98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BH98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BI98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BJ98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BK98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BL98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BM98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BN98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BO98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BP98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BQ98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BR98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BS98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BT98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BU98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BV98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BW98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BX98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BY98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BZ98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CA98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CB98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CC98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CD98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CE98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CF98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CG98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CH98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CI98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CJ98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CK98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CL98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CM98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CN98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CO98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CP98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CQ98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CR98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CS98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CT98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CU98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CV98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CW98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CX98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CY98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CZ98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="DA98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="DB98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="DC98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="DD98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="DE98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="DF98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="DG98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="DH98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="DI98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="DJ98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="DK98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="DL98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="DM98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="DN98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="DO98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="DP98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="DQ98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="DR98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="DS98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="DT98" t="s">
         <v>1</v>
@@ -4339,370 +4411,370 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Q99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="R99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="S99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="T99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="U99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="V99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="W99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="X99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Y99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Z99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AA99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AB99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AC99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AD99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AE99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AF99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AG99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AH99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AI99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AJ99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AK99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AL99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AM99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AN99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AO99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AP99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AQ99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AR99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AS99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AT99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AU99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AV99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AW99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AX99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AY99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AZ99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BA99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BB99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BC99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BD99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BE99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BF99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BG99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BH99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BI99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BJ99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BK99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BL99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BM99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BN99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BO99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BP99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BQ99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BR99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BS99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BT99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BU99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BV99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BW99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BX99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BY99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BZ99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CA99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CB99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CC99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CD99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CE99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CF99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CG99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CH99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CI99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CJ99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CK99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CL99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CM99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CN99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CO99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CP99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CQ99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CR99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CS99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CT99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CU99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CV99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CW99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CX99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CY99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CZ99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DA99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DB99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DC99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DD99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DE99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DF99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DG99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DH99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DI99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DJ99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DK99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DL99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DM99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DN99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DO99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DP99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DQ99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DR99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DS99" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="DT99" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="DU99" t="s">
         <v>1</v>

--- a/map/map.xlsx
+++ b/map/map.xlsx
@@ -24,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="31">
   <si>
     <t>Meer</t>
-  </si>
-  <si>
-    <t>Strand</t>
   </si>
   <si>
     <t>Shop</t>
@@ -78,6 +75,48 @@
   </si>
   <si>
     <t>baum</t>
+  </si>
+  <si>
+    <t>Strand Wiese RU</t>
+  </si>
+  <si>
+    <t>Strand Wiese RO</t>
+  </si>
+  <si>
+    <t>Strand Wiese LO</t>
+  </si>
+  <si>
+    <t>Strand Wiese LU</t>
+  </si>
+  <si>
+    <t>Lagerfeuer</t>
+  </si>
+  <si>
+    <t>strand meer LO</t>
+  </si>
+  <si>
+    <t>Strand meer RO</t>
+  </si>
+  <si>
+    <t>Meer Strand UR</t>
+  </si>
+  <si>
+    <t>Meer Strand OL</t>
+  </si>
+  <si>
+    <t>Meer Strand OR</t>
+  </si>
+  <si>
+    <t>Meer Strand UL</t>
+  </si>
+  <si>
+    <t>Strand Meer LO</t>
+  </si>
+  <si>
+    <t>strand meer LU</t>
+  </si>
+  <si>
+    <t>strand meer RO</t>
   </si>
 </sst>
 </file>
@@ -398,7 +437,7 @@
   <dimension ref="A1:DV100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,376 +827,376 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BE2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BF2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BG2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BH2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BI2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BJ2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BK2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BL2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BM2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BN2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BO2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BP2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BQ2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BR2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BS2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BT2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BU2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BV2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BW2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BX2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BY2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BZ2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CA2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CB2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CC2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CD2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CE2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CF2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CG2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CH2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CI2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CJ2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CK2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CL2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CM2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CN2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CO2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CP2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CQ2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CR2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CS2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CT2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CU2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CV2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CW2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CX2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CY2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CZ2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="DA2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="DB2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="DC2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="DD2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="DE2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="DF2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="DG2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="DH2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="DI2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="DJ2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="DK2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="DL2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="DM2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="DN2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="DO2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="DP2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="DQ2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="DR2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="DS2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="DT2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="DU2" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="DV2" t="s">
         <v>0</v>
@@ -1168,376 +1207,376 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="P3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BE3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BF3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BH3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BJ3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BK3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BL3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BM3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BN3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BO3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BP3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BQ3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BR3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BS3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BT3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BU3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BV3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BW3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BX3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BY3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BZ3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CA3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CB3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CC3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CD3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CE3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CF3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CG3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CH3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CI3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CJ3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CK3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CL3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CM3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CN3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CO3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CP3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CQ3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CR3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CS3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CT3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CU3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CV3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CW3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CX3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CY3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CZ3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DA3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DB3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DC3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DD3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DE3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DF3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DG3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DH3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DI3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DJ3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DK3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DL3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DM3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DN3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DO3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DP3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DQ3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DR3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DS3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DT3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="DU3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV3" t="s">
         <v>0</v>
@@ -1548,22 +1587,40 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>10</v>
       </c>
       <c r="AE4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DS4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DT4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV4" t="s">
         <v>0</v>
@@ -1574,22 +1631,40 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>10</v>
       </c>
       <c r="AE5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV5" t="s">
         <v>0</v>
@@ -1600,28 +1675,49 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
       </c>
       <c r="AF6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV6" t="s">
         <v>0</v>
@@ -1632,28 +1728,49 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s">
-        <v>16</v>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>10</v>
       </c>
       <c r="AG7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV7" t="s">
         <v>0</v>
@@ -1664,22 +1781,43 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>10</v>
       </c>
       <c r="AH8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV8" t="s">
         <v>0</v>
@@ -1690,31 +1828,49 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>10</v>
       </c>
       <c r="AI9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV9" t="s">
         <v>0</v>
@@ -1725,22 +1881,40 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>10</v>
       </c>
       <c r="AJ10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV10" t="s">
         <v>0</v>
@@ -1751,31 +1925,46 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" t="s">
+        <v>22</v>
       </c>
       <c r="AK11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV11" t="s">
         <v>0</v>
@@ -1786,28 +1975,43 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="K12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>10</v>
       </c>
       <c r="AL12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV12" t="s">
         <v>0</v>
@@ -1818,22 +2022,34 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>10</v>
       </c>
       <c r="AM13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV13" t="s">
         <v>0</v>
@@ -1844,22 +2060,34 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="K14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>10</v>
       </c>
       <c r="AN14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV14" t="s">
         <v>0</v>
@@ -1870,25 +2098,37 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="K15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" t="s">
+        <v>22</v>
       </c>
       <c r="AO15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV15" t="s">
         <v>0</v>
@@ -1899,22 +2139,22 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV16" t="s">
         <v>0</v>
@@ -1925,22 +2165,22 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV17" t="s">
         <v>0</v>
@@ -1951,25 +2191,25 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV18" t="s">
         <v>0</v>
@@ -1980,22 +2220,22 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV19" t="s">
         <v>0</v>
@@ -2006,22 +2246,22 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV20" t="s">
         <v>0</v>
@@ -2032,22 +2272,22 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV21" t="s">
         <v>0</v>
@@ -2058,22 +2298,22 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV22" t="s">
         <v>0</v>
@@ -2084,22 +2324,22 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV23" t="s">
         <v>0</v>
@@ -2110,22 +2350,22 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV24" t="s">
         <v>0</v>
@@ -2136,22 +2376,22 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV25" t="s">
         <v>0</v>
@@ -2162,22 +2402,22 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV26" t="s">
         <v>0</v>
@@ -2188,22 +2428,22 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV27" t="s">
         <v>0</v>
@@ -2214,22 +2454,22 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV28" t="s">
         <v>0</v>
@@ -2240,22 +2480,22 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV29" t="s">
         <v>0</v>
@@ -2266,22 +2506,22 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BE30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV30" t="s">
         <v>0</v>
@@ -2292,22 +2532,22 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BE31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BF31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV31" t="s">
         <v>0</v>
@@ -2318,22 +2558,22 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV32" t="s">
         <v>0</v>
@@ -2344,22 +2584,22 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV33" t="s">
         <v>0</v>
@@ -2370,22 +2610,22 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BI34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV34" t="s">
         <v>0</v>
@@ -2396,22 +2636,22 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV35" t="s">
         <v>0</v>
@@ -2422,22 +2662,22 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BK36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV36" t="s">
         <v>0</v>
@@ -2448,22 +2688,22 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BL37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV37" t="s">
         <v>0</v>
@@ -2474,22 +2714,22 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BL38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BM38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV38" t="s">
         <v>0</v>
@@ -2500,22 +2740,22 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BN39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV39" t="s">
         <v>0</v>
@@ -2526,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BN40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BO40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV40" t="s">
         <v>0</v>
@@ -2552,22 +2792,22 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BP41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV41" t="s">
         <v>0</v>
@@ -2578,22 +2818,22 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BQ42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV42" t="s">
         <v>0</v>
@@ -2604,22 +2844,22 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BR43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV43" t="s">
         <v>0</v>
@@ -2630,22 +2870,22 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BS44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV44" t="s">
         <v>0</v>
@@ -2656,22 +2896,22 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BS45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BT45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV45" t="s">
         <v>0</v>
@@ -2682,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BT46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BU46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV46" t="s">
         <v>0</v>
@@ -2708,22 +2948,22 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BV47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV47" t="s">
         <v>0</v>
@@ -2734,22 +2974,22 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BV48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BW48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV48" t="s">
         <v>0</v>
@@ -2760,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BW49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BX49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV49" t="s">
         <v>0</v>
@@ -2786,22 +3026,22 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BY50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV50" t="s">
         <v>0</v>
@@ -2812,22 +3052,22 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BZ51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV51" t="s">
         <v>0</v>
@@ -2838,22 +3078,22 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BZ52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CA52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV52" t="s">
         <v>0</v>
@@ -2864,22 +3104,22 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CA53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CB53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV53" t="s">
         <v>0</v>
@@ -2890,22 +3130,22 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CB54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV54" t="s">
         <v>0</v>
@@ -2916,22 +3156,22 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CC55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CD55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV55" t="s">
         <v>0</v>
@@ -2942,22 +3182,22 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CD56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CE56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV56" t="s">
         <v>0</v>
@@ -2968,22 +3208,22 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CE57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CF57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV57" t="s">
         <v>0</v>
@@ -2994,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CF58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CG58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV58" t="s">
         <v>0</v>
@@ -3020,22 +3260,22 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CG59" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CH59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV59" t="s">
         <v>0</v>
@@ -3046,22 +3286,22 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CH60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CI60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV60" t="s">
         <v>0</v>
@@ -3072,22 +3312,22 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CI61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CJ61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV61" t="s">
         <v>0</v>
@@ -3098,22 +3338,22 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CJ62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CK62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV62" t="s">
         <v>0</v>
@@ -3124,22 +3364,22 @@
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CK63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CL63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV63" t="s">
         <v>0</v>
@@ -3150,22 +3390,22 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CL64" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CM64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV64" t="s">
         <v>0</v>
@@ -3176,22 +3416,22 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CM65" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CN65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV65" t="s">
         <v>0</v>
@@ -3202,22 +3442,22 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CN66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CO66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV66" t="s">
         <v>0</v>
@@ -3228,22 +3468,22 @@
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CO67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CP67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV67" t="s">
         <v>0</v>
@@ -3254,22 +3494,22 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CP68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CQ68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV68" t="s">
         <v>0</v>
@@ -3280,22 +3520,22 @@
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CQ69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CR69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV69" t="s">
         <v>0</v>
@@ -3306,22 +3546,22 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CR70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CS70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV70" t="s">
         <v>0</v>
@@ -3332,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CS71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CT71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV71" t="s">
         <v>0</v>
@@ -3358,22 +3598,22 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CT72" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CU72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV72" t="s">
         <v>0</v>
@@ -3384,22 +3624,22 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CU73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CV73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV73" t="s">
         <v>0</v>
@@ -3410,22 +3650,22 @@
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CV74" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CW74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV74" t="s">
         <v>0</v>
@@ -3436,22 +3676,22 @@
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CW75" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CX75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV75" t="s">
         <v>0</v>
@@ -3462,22 +3702,22 @@
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CX76" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CY76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV76" t="s">
         <v>0</v>
@@ -3488,22 +3728,22 @@
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CY77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CZ77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV77" t="s">
         <v>0</v>
@@ -3514,22 +3754,22 @@
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CZ78" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DA78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV78" t="s">
         <v>0</v>
@@ -3540,22 +3780,22 @@
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DA79" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DB79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV79" t="s">
         <v>0</v>
@@ -3566,22 +3806,22 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DB80" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DC80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV80" t="s">
         <v>0</v>
@@ -3592,22 +3832,22 @@
         <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DC81" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DD81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV81" t="s">
         <v>0</v>
@@ -3618,22 +3858,22 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DD82" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DE82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV82" t="s">
         <v>0</v>
@@ -3644,22 +3884,22 @@
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DE83" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DF83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV83" t="s">
         <v>0</v>
@@ -3670,22 +3910,22 @@
         <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DF84" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DG84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV84" t="s">
         <v>0</v>
@@ -3696,22 +3936,22 @@
         <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DG85" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DH85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV85" t="s">
         <v>0</v>
@@ -3722,22 +3962,22 @@
         <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DH86" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DI86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV86" t="s">
         <v>0</v>
@@ -3748,22 +3988,22 @@
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DI87" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DJ87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV87" t="s">
         <v>0</v>
@@ -3774,22 +4014,22 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DJ88" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DK88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV88" t="s">
         <v>0</v>
@@ -3800,22 +4040,22 @@
         <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DK89" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DL89" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV89" t="s">
         <v>0</v>
@@ -3826,22 +4066,22 @@
         <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DL90" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DM90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV90" t="s">
         <v>0</v>
@@ -3852,22 +4092,22 @@
         <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DM91" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DN91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV91" t="s">
         <v>0</v>
@@ -3878,22 +4118,22 @@
         <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DN92" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DO92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV92" t="s">
         <v>0</v>
@@ -3904,22 +4144,22 @@
         <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DO93" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DP93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV93" t="s">
         <v>0</v>
@@ -3930,22 +4170,22 @@
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DP94" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DQ94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV94" t="s">
         <v>0</v>
@@ -3956,22 +4196,22 @@
         <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DQ95" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DR95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV95" t="s">
         <v>0</v>
@@ -3982,19 +4222,19 @@
         <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DR96" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DT96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV96" t="s">
         <v>0</v>
@@ -4005,19 +4245,19 @@
         <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DS97" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DT97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DU97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DV97" t="s">
         <v>0</v>
@@ -4028,376 +4268,376 @@
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C98" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BE98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BG98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BH98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BI98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BJ98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BK98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BL98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BM98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BN98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BO98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BP98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BQ98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BR98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BS98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BT98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BU98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BV98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BW98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BX98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BY98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BZ98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CA98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CB98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CC98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CD98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CE98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CF98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CG98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CH98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CI98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CJ98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CK98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CL98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CM98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CN98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CO98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CP98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CQ98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CR98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CS98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CT98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CU98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CV98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CW98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CX98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CY98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CZ98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DA98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DB98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DC98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DD98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DE98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DF98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DG98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DH98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DI98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DJ98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DK98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DL98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DM98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DN98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DO98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DP98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DQ98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DR98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DS98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DT98" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="DU98" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="DV98" t="s">
         <v>0</v>
@@ -4408,376 +4648,376 @@
         <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BE99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BF99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BG99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BH99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BI99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BJ99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BK99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BL99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BM99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BN99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BO99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BP99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BQ99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BR99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BS99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BT99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BU99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BV99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BW99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BX99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BY99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BZ99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CA99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CB99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CC99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CD99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CE99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CF99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CG99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CH99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CI99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CJ99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CK99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CL99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CM99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CN99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CO99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CP99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CQ99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CR99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CS99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CT99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CU99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CV99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CW99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CX99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CY99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CZ99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DA99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DB99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DC99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DD99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DE99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DF99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DG99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DH99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DI99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DJ99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DK99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DL99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DM99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DN99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DO99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DP99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DQ99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DR99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DS99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DT99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DU99" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="DV99" t="s">
         <v>0</v>

--- a/map/map.xlsx
+++ b/map/map.xlsx
@@ -24,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="28">
   <si>
     <t>Meer</t>
-  </si>
-  <si>
-    <t>Shop</t>
   </si>
   <si>
     <t>Fluss</t>
@@ -110,13 +107,7 @@
     <t>Meer Strand UL</t>
   </si>
   <si>
-    <t>Strand Meer LO</t>
-  </si>
-  <si>
     <t>strand meer LU</t>
-  </si>
-  <si>
-    <t>strand meer RO</t>
   </si>
 </sst>
 </file>
@@ -437,7 +428,7 @@
   <dimension ref="A1:DV100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="DU3" sqref="DU3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,28 +818,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
@@ -866,334 +857,334 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BE2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BF2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BG2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BH2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BI2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BJ2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BK2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BL2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BM2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BN2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BO2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BP2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BQ2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BR2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BS2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BT2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BU2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BV2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BW2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BX2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BY2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BZ2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CA2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CB2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CC2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CD2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CE2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CF2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CG2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CH2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CI2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CJ2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CK2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CL2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CM2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CN2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CO2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CP2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CQ2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CR2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CS2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CT2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CU2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CV2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CW2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CX2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CY2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CZ2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DA2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DB2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DC2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DD2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DE2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DF2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DG2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DH2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DI2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DJ2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DK2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DL2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DM2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DN2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DO2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DP2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DQ2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DR2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DS2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DT2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DU2" t="s">
         <v>26</v>
@@ -1207,28 +1198,28 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
         <v>0</v>
@@ -1243,340 +1234,340 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="P3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BE3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BF3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BH3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BI3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BK3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BL3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BM3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BN3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BO3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BP3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BQ3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BR3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BS3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BT3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BU3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BV3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BW3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BX3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BY3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BZ3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CA3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CB3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CC3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CD3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CE3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CF3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CG3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CH3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CI3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CJ3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CK3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CL3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CM3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CN3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CO3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CP3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CQ3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CR3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CS3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CT3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CU3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CV3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CW3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CX3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CY3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CZ3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DA3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DB3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DC3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DD3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DE3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DF3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DG3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DH3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DI3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DJ3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DK3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DL3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DM3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DN3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DO3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DP3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DQ3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DR3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DS3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DT3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="DU3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV3" t="s">
         <v>0</v>
@@ -1587,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
         <v>0</v>
@@ -1608,19 +1599,19 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DS4" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="DT4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV4" t="s">
         <v>0</v>
@@ -1631,13 +1622,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
         <v>0</v>
@@ -1652,19 +1643,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV5" t="s">
         <v>0</v>
@@ -1675,19 +1666,19 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6" t="s">
         <v>0</v>
@@ -1702,22 +1693,22 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AF6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV6" t="s">
         <v>0</v>
@@ -1728,19 +1719,19 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
         <v>0</v>
@@ -1758,19 +1749,19 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV7" t="s">
         <v>0</v>
@@ -1781,16 +1772,16 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8" t="s">
         <v>0</v>
@@ -1805,19 +1796,19 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV8" t="s">
         <v>0</v>
@@ -1828,22 +1819,22 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K9" t="s">
         <v>0</v>
@@ -1858,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV9" t="s">
         <v>0</v>
@@ -1881,16 +1872,16 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L10" t="s">
         <v>0</v>
@@ -1902,19 +1893,19 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV10" t="s">
         <v>0</v>
@@ -1925,22 +1916,22 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L11" t="s">
         <v>0</v>
@@ -1949,22 +1940,22 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV11" t="s">
         <v>0</v>
@@ -1975,22 +1966,22 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L12" t="s">
         <v>0</v>
@@ -1999,19 +1990,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV12" t="s">
         <v>0</v>
@@ -2022,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" t="s">
         <v>0</v>
@@ -2037,19 +2028,19 @@
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV13" t="s">
         <v>0</v>
@@ -2060,13 +2051,13 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L14" t="s">
         <v>0</v>
@@ -2075,19 +2066,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV14" t="s">
         <v>0</v>
@@ -2098,37 +2089,37 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV15" t="s">
         <v>0</v>
@@ -2139,22 +2130,22 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV16" t="s">
         <v>0</v>
@@ -2165,22 +2156,22 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV17" t="s">
         <v>0</v>
@@ -2191,25 +2182,25 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV18" t="s">
         <v>0</v>
@@ -2220,22 +2211,22 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV19" t="s">
         <v>0</v>
@@ -2246,22 +2237,22 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV20" t="s">
         <v>0</v>
@@ -2272,22 +2263,22 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV21" t="s">
         <v>0</v>
@@ -2298,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV22" t="s">
         <v>0</v>
@@ -2324,22 +2315,22 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV23" t="s">
         <v>0</v>
@@ -2350,22 +2341,22 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV24" t="s">
         <v>0</v>
@@ -2376,22 +2367,22 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV25" t="s">
         <v>0</v>
@@ -2402,22 +2393,22 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV26" t="s">
         <v>0</v>
@@ -2428,22 +2419,22 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV27" t="s">
         <v>0</v>
@@ -2454,22 +2445,22 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV28" t="s">
         <v>0</v>
@@ -2480,22 +2471,22 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV29" t="s">
         <v>0</v>
@@ -2506,22 +2497,22 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BE30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV30" t="s">
         <v>0</v>
@@ -2532,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BE31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV31" t="s">
         <v>0</v>
@@ -2558,22 +2549,22 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BF32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV32" t="s">
         <v>0</v>
@@ -2584,22 +2575,22 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV33" t="s">
         <v>0</v>
@@ -2610,22 +2601,22 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BH34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV34" t="s">
         <v>0</v>
@@ -2636,22 +2627,22 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV35" t="s">
         <v>0</v>
@@ -2662,22 +2653,22 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BJ36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BK36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV36" t="s">
         <v>0</v>
@@ -2688,22 +2679,22 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BK37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BL37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV37" t="s">
         <v>0</v>
@@ -2714,22 +2705,22 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BL38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BM38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV38" t="s">
         <v>0</v>
@@ -2740,22 +2731,22 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BM39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BN39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV39" t="s">
         <v>0</v>
@@ -2766,22 +2757,22 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BN40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BO40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV40" t="s">
         <v>0</v>
@@ -2792,22 +2783,22 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BO41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BP41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV41" t="s">
         <v>0</v>
@@ -2818,22 +2809,22 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BP42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BQ42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV42" t="s">
         <v>0</v>
@@ -2844,22 +2835,22 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BQ43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BR43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV43" t="s">
         <v>0</v>
@@ -2870,22 +2861,22 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BR44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BS44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV44" t="s">
         <v>0</v>
@@ -2896,22 +2887,22 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BS45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BT45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV45" t="s">
         <v>0</v>
@@ -2922,22 +2913,22 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BT46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BU46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV46" t="s">
         <v>0</v>
@@ -2948,22 +2939,22 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BU47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BV47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV47" t="s">
         <v>0</v>
@@ -2974,22 +2965,22 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BV48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BW48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV48" t="s">
         <v>0</v>
@@ -3000,22 +2991,22 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BW49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BX49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV49" t="s">
         <v>0</v>
@@ -3026,22 +3017,22 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BX50" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BY50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV50" t="s">
         <v>0</v>
@@ -3052,22 +3043,22 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BY51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BZ51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV51" t="s">
         <v>0</v>
@@ -3078,22 +3069,22 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BZ52" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CA52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV52" t="s">
         <v>0</v>
@@ -3104,22 +3095,22 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CA53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CB53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV53" t="s">
         <v>0</v>
@@ -3130,22 +3121,22 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CB54" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CC54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV54" t="s">
         <v>0</v>
@@ -3156,22 +3147,22 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CC55" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CD55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV55" t="s">
         <v>0</v>
@@ -3182,22 +3173,22 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CD56" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CE56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV56" t="s">
         <v>0</v>
@@ -3208,22 +3199,22 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CE57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CF57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV57" t="s">
         <v>0</v>
@@ -3234,22 +3225,22 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CF58" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CG58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV58" t="s">
         <v>0</v>
@@ -3260,22 +3251,22 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CG59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CH59" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV59" t="s">
         <v>0</v>
@@ -3286,22 +3277,22 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CH60" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CI60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV60" t="s">
         <v>0</v>
@@ -3312,22 +3303,22 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CI61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CJ61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV61" t="s">
         <v>0</v>
@@ -3338,22 +3329,22 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CJ62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CK62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV62" t="s">
         <v>0</v>
@@ -3364,22 +3355,22 @@
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CK63" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CL63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV63" t="s">
         <v>0</v>
@@ -3390,22 +3381,22 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CL64" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CM64" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV64" t="s">
         <v>0</v>
@@ -3416,22 +3407,22 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CM65" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CN65" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV65" t="s">
         <v>0</v>
@@ -3442,22 +3433,22 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CN66" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CO66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV66" t="s">
         <v>0</v>
@@ -3468,22 +3459,22 @@
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CO67" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CP67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV67" t="s">
         <v>0</v>
@@ -3494,22 +3485,22 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CP68" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CQ68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV68" t="s">
         <v>0</v>
@@ -3520,22 +3511,22 @@
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CQ69" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CR69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV69" t="s">
         <v>0</v>
@@ -3546,22 +3537,22 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CR70" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CS70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV70" t="s">
         <v>0</v>
@@ -3572,22 +3563,22 @@
         <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CS71" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CT71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV71" t="s">
         <v>0</v>
@@ -3598,22 +3589,22 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CT72" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CU72" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV72" t="s">
         <v>0</v>
@@ -3624,22 +3615,22 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CU73" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CV73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV73" t="s">
         <v>0</v>
@@ -3650,22 +3641,22 @@
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CV74" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CW74" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV74" t="s">
         <v>0</v>
@@ -3676,22 +3667,22 @@
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CW75" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CX75" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV75" t="s">
         <v>0</v>
@@ -3702,22 +3693,22 @@
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CX76" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CY76" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV76" t="s">
         <v>0</v>
@@ -3728,22 +3719,22 @@
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CY77" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CZ77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV77" t="s">
         <v>0</v>
@@ -3754,22 +3745,22 @@
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CZ78" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DA78" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV78" t="s">
         <v>0</v>
@@ -3780,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DA79" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DB79" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV79" t="s">
         <v>0</v>
@@ -3806,22 +3797,22 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DB80" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DC80" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV80" t="s">
         <v>0</v>
@@ -3832,22 +3823,22 @@
         <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DC81" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DD81" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV81" t="s">
         <v>0</v>
@@ -3858,22 +3849,22 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DD82" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DE82" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV82" t="s">
         <v>0</v>
@@ -3884,22 +3875,22 @@
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DE83" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DF83" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV83" t="s">
         <v>0</v>
@@ -3910,22 +3901,22 @@
         <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DF84" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DG84" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV84" t="s">
         <v>0</v>
@@ -3936,22 +3927,22 @@
         <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DG85" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DH85" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV85" t="s">
         <v>0</v>
@@ -3962,22 +3953,22 @@
         <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DH86" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DI86" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV86" t="s">
         <v>0</v>
@@ -3988,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DI87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DJ87" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV87" t="s">
         <v>0</v>
@@ -4014,22 +4005,22 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DJ88" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DK88" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV88" t="s">
         <v>0</v>
@@ -4040,22 +4031,22 @@
         <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DK89" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DL89" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV89" t="s">
         <v>0</v>
@@ -4066,22 +4057,22 @@
         <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DL90" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DM90" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT90" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV90" t="s">
         <v>0</v>
@@ -4092,22 +4083,22 @@
         <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DM91" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DN91" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV91" t="s">
         <v>0</v>
@@ -4118,22 +4109,22 @@
         <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DN92" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DO92" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV92" t="s">
         <v>0</v>
@@ -4144,22 +4135,22 @@
         <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DO93" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DP93" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV93" t="s">
         <v>0</v>
@@ -4170,22 +4161,22 @@
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DP94" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DQ94" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV94" t="s">
         <v>0</v>
@@ -4196,22 +4187,22 @@
         <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DQ95" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DR95" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV95" t="s">
         <v>0</v>
@@ -4222,19 +4213,19 @@
         <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DR96" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DT96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV96" t="s">
         <v>0</v>
@@ -4245,19 +4236,19 @@
         <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DS97" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="DT97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DU97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV97" t="s">
         <v>0</v>
@@ -4268,376 +4259,376 @@
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" t="s">
+        <v>7</v>
+      </c>
+      <c r="G98" t="s">
+        <v>7</v>
+      </c>
+      <c r="H98" t="s">
+        <v>7</v>
+      </c>
+      <c r="I98" t="s">
+        <v>7</v>
+      </c>
+      <c r="J98" t="s">
+        <v>7</v>
+      </c>
+      <c r="K98" t="s">
+        <v>7</v>
+      </c>
+      <c r="L98" t="s">
+        <v>7</v>
+      </c>
+      <c r="M98" t="s">
+        <v>7</v>
+      </c>
+      <c r="N98" t="s">
+        <v>7</v>
+      </c>
+      <c r="O98" t="s">
+        <v>7</v>
+      </c>
+      <c r="P98" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>7</v>
+      </c>
+      <c r="R98" t="s">
+        <v>7</v>
+      </c>
+      <c r="S98" t="s">
+        <v>7</v>
+      </c>
+      <c r="T98" t="s">
+        <v>7</v>
+      </c>
+      <c r="U98" t="s">
+        <v>7</v>
+      </c>
+      <c r="V98" t="s">
+        <v>7</v>
+      </c>
+      <c r="W98" t="s">
+        <v>7</v>
+      </c>
+      <c r="X98" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z98" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE98" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF98" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG98" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH98" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI98" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ98" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK98" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL98" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM98" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN98" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO98" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP98" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ98" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR98" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS98" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT98" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU98" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV98" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW98" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX98" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY98" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ98" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA98" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB98" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC98" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD98" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE98" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF98" t="s">
+        <v>7</v>
+      </c>
+      <c r="BG98" t="s">
+        <v>7</v>
+      </c>
+      <c r="BH98" t="s">
+        <v>7</v>
+      </c>
+      <c r="BI98" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ98" t="s">
+        <v>7</v>
+      </c>
+      <c r="BK98" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL98" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM98" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN98" t="s">
+        <v>7</v>
+      </c>
+      <c r="BO98" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP98" t="s">
+        <v>7</v>
+      </c>
+      <c r="BQ98" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR98" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS98" t="s">
+        <v>7</v>
+      </c>
+      <c r="BT98" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU98" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV98" t="s">
+        <v>7</v>
+      </c>
+      <c r="BW98" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX98" t="s">
+        <v>7</v>
+      </c>
+      <c r="BY98" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ98" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA98" t="s">
+        <v>7</v>
+      </c>
+      <c r="CB98" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC98" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD98" t="s">
+        <v>7</v>
+      </c>
+      <c r="CE98" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF98" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG98" t="s">
+        <v>7</v>
+      </c>
+      <c r="CH98" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI98" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ98" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK98" t="s">
+        <v>7</v>
+      </c>
+      <c r="CL98" t="s">
+        <v>7</v>
+      </c>
+      <c r="CM98" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN98" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO98" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP98" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ98" t="s">
+        <v>7</v>
+      </c>
+      <c r="CR98" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS98" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT98" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU98" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV98" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW98" t="s">
+        <v>7</v>
+      </c>
+      <c r="CX98" t="s">
+        <v>7</v>
+      </c>
+      <c r="CY98" t="s">
+        <v>7</v>
+      </c>
+      <c r="CZ98" t="s">
+        <v>7</v>
+      </c>
+      <c r="DA98" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB98" t="s">
+        <v>7</v>
+      </c>
+      <c r="DC98" t="s">
+        <v>7</v>
+      </c>
+      <c r="DD98" t="s">
+        <v>7</v>
+      </c>
+      <c r="DE98" t="s">
+        <v>7</v>
+      </c>
+      <c r="DF98" t="s">
+        <v>7</v>
+      </c>
+      <c r="DG98" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH98" t="s">
+        <v>7</v>
+      </c>
+      <c r="DI98" t="s">
+        <v>7</v>
+      </c>
+      <c r="DJ98" t="s">
+        <v>7</v>
+      </c>
+      <c r="DK98" t="s">
+        <v>7</v>
+      </c>
+      <c r="DL98" t="s">
+        <v>7</v>
+      </c>
+      <c r="DM98" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN98" t="s">
+        <v>7</v>
+      </c>
+      <c r="DO98" t="s">
+        <v>7</v>
+      </c>
+      <c r="DP98" t="s">
+        <v>7</v>
+      </c>
+      <c r="DQ98" t="s">
+        <v>7</v>
+      </c>
+      <c r="DR98" t="s">
+        <v>7</v>
+      </c>
+      <c r="DS98" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT98" t="s">
         <v>18</v>
       </c>
-      <c r="D98" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98" t="s">
-        <v>8</v>
-      </c>
-      <c r="F98" t="s">
-        <v>8</v>
-      </c>
-      <c r="G98" t="s">
-        <v>8</v>
-      </c>
-      <c r="H98" t="s">
-        <v>8</v>
-      </c>
-      <c r="I98" t="s">
-        <v>8</v>
-      </c>
-      <c r="J98" t="s">
-        <v>8</v>
-      </c>
-      <c r="K98" t="s">
-        <v>8</v>
-      </c>
-      <c r="L98" t="s">
-        <v>8</v>
-      </c>
-      <c r="M98" t="s">
-        <v>8</v>
-      </c>
-      <c r="N98" t="s">
-        <v>8</v>
-      </c>
-      <c r="O98" t="s">
-        <v>8</v>
-      </c>
-      <c r="P98" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>8</v>
-      </c>
-      <c r="R98" t="s">
-        <v>8</v>
-      </c>
-      <c r="S98" t="s">
-        <v>8</v>
-      </c>
-      <c r="T98" t="s">
-        <v>8</v>
-      </c>
-      <c r="U98" t="s">
-        <v>8</v>
-      </c>
-      <c r="V98" t="s">
-        <v>8</v>
-      </c>
-      <c r="W98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X98" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y98" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z98" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA98" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB98" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC98" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD98" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE98" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF98" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG98" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH98" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI98" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ98" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK98" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL98" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM98" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN98" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO98" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP98" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ98" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR98" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS98" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT98" t="s">
-        <v>8</v>
-      </c>
-      <c r="AU98" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV98" t="s">
-        <v>8</v>
-      </c>
-      <c r="AW98" t="s">
-        <v>8</v>
-      </c>
-      <c r="AX98" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY98" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ98" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA98" t="s">
-        <v>8</v>
-      </c>
-      <c r="BB98" t="s">
-        <v>8</v>
-      </c>
-      <c r="BC98" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD98" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE98" t="s">
-        <v>8</v>
-      </c>
-      <c r="BF98" t="s">
-        <v>8</v>
-      </c>
-      <c r="BG98" t="s">
-        <v>8</v>
-      </c>
-      <c r="BH98" t="s">
-        <v>8</v>
-      </c>
-      <c r="BI98" t="s">
-        <v>8</v>
-      </c>
-      <c r="BJ98" t="s">
-        <v>8</v>
-      </c>
-      <c r="BK98" t="s">
-        <v>8</v>
-      </c>
-      <c r="BL98" t="s">
-        <v>8</v>
-      </c>
-      <c r="BM98" t="s">
-        <v>8</v>
-      </c>
-      <c r="BN98" t="s">
-        <v>8</v>
-      </c>
-      <c r="BO98" t="s">
-        <v>8</v>
-      </c>
-      <c r="BP98" t="s">
-        <v>8</v>
-      </c>
-      <c r="BQ98" t="s">
-        <v>8</v>
-      </c>
-      <c r="BR98" t="s">
-        <v>8</v>
-      </c>
-      <c r="BS98" t="s">
-        <v>8</v>
-      </c>
-      <c r="BT98" t="s">
-        <v>8</v>
-      </c>
-      <c r="BU98" t="s">
-        <v>8</v>
-      </c>
-      <c r="BV98" t="s">
-        <v>8</v>
-      </c>
-      <c r="BW98" t="s">
-        <v>8</v>
-      </c>
-      <c r="BX98" t="s">
-        <v>8</v>
-      </c>
-      <c r="BY98" t="s">
-        <v>8</v>
-      </c>
-      <c r="BZ98" t="s">
-        <v>8</v>
-      </c>
-      <c r="CA98" t="s">
-        <v>8</v>
-      </c>
-      <c r="CB98" t="s">
-        <v>8</v>
-      </c>
-      <c r="CC98" t="s">
-        <v>8</v>
-      </c>
-      <c r="CD98" t="s">
-        <v>8</v>
-      </c>
-      <c r="CE98" t="s">
-        <v>8</v>
-      </c>
-      <c r="CF98" t="s">
-        <v>8</v>
-      </c>
-      <c r="CG98" t="s">
-        <v>8</v>
-      </c>
-      <c r="CH98" t="s">
-        <v>8</v>
-      </c>
-      <c r="CI98" t="s">
-        <v>8</v>
-      </c>
-      <c r="CJ98" t="s">
-        <v>8</v>
-      </c>
-      <c r="CK98" t="s">
-        <v>8</v>
-      </c>
-      <c r="CL98" t="s">
-        <v>8</v>
-      </c>
-      <c r="CM98" t="s">
-        <v>8</v>
-      </c>
-      <c r="CN98" t="s">
-        <v>8</v>
-      </c>
-      <c r="CO98" t="s">
-        <v>8</v>
-      </c>
-      <c r="CP98" t="s">
-        <v>8</v>
-      </c>
-      <c r="CQ98" t="s">
-        <v>8</v>
-      </c>
-      <c r="CR98" t="s">
-        <v>8</v>
-      </c>
-      <c r="CS98" t="s">
-        <v>8</v>
-      </c>
-      <c r="CT98" t="s">
-        <v>8</v>
-      </c>
-      <c r="CU98" t="s">
-        <v>8</v>
-      </c>
-      <c r="CV98" t="s">
-        <v>8</v>
-      </c>
-      <c r="CW98" t="s">
-        <v>8</v>
-      </c>
-      <c r="CX98" t="s">
-        <v>8</v>
-      </c>
-      <c r="CY98" t="s">
-        <v>8</v>
-      </c>
-      <c r="CZ98" t="s">
-        <v>8</v>
-      </c>
-      <c r="DA98" t="s">
-        <v>8</v>
-      </c>
-      <c r="DB98" t="s">
-        <v>8</v>
-      </c>
-      <c r="DC98" t="s">
-        <v>8</v>
-      </c>
-      <c r="DD98" t="s">
-        <v>8</v>
-      </c>
-      <c r="DE98" t="s">
-        <v>8</v>
-      </c>
-      <c r="DF98" t="s">
-        <v>8</v>
-      </c>
-      <c r="DG98" t="s">
-        <v>8</v>
-      </c>
-      <c r="DH98" t="s">
-        <v>8</v>
-      </c>
-      <c r="DI98" t="s">
-        <v>8</v>
-      </c>
-      <c r="DJ98" t="s">
-        <v>8</v>
-      </c>
-      <c r="DK98" t="s">
-        <v>8</v>
-      </c>
-      <c r="DL98" t="s">
-        <v>8</v>
-      </c>
-      <c r="DM98" t="s">
-        <v>8</v>
-      </c>
-      <c r="DN98" t="s">
-        <v>8</v>
-      </c>
-      <c r="DO98" t="s">
-        <v>8</v>
-      </c>
-      <c r="DP98" t="s">
-        <v>8</v>
-      </c>
-      <c r="DQ98" t="s">
-        <v>8</v>
-      </c>
-      <c r="DR98" t="s">
-        <v>8</v>
-      </c>
-      <c r="DS98" t="s">
-        <v>8</v>
-      </c>
-      <c r="DT98" t="s">
-        <v>19</v>
-      </c>
       <c r="DU98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DV98" t="s">
         <v>0</v>
@@ -4648,376 +4639,376 @@
         <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BE99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BF99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BG99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BH99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BI99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BJ99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BK99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BL99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BM99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BN99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BO99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BP99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BQ99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BR99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BS99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BT99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BU99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BV99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BW99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BX99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BY99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BZ99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CA99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CB99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CC99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CD99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CE99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CF99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CG99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CH99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CI99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CJ99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CK99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CL99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CM99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CN99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CO99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CP99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CQ99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CR99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CS99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CT99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CU99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CV99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CW99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CX99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CY99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CZ99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DA99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DB99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DC99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DD99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DE99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DF99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DG99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DH99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DI99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DJ99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DK99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DL99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DM99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DN99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DO99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DP99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DQ99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DR99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DS99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DT99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DU99" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="DV99" t="s">
         <v>0</v>
